--- a/resources/templet/staffcost.xlsx
+++ b/resources/templet/staffcost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wutai_workspace\pm\resources\templet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\souvi\pm\pm\resources\templet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>员工工号</t>
   </si>
@@ -432,6 +432,30 @@
   </si>
   <si>
     <t>证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子女教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房贷款利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赡养老人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM5" sqref="AM5"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -916,12 +940,12 @@
     <col min="37" max="38" width="26.28515625" style="1" customWidth="1"/>
     <col min="39" max="39" width="16" style="1"/>
     <col min="40" max="40" width="17.7109375" style="1" customWidth="1"/>
-    <col min="41" max="46" width="16" style="1"/>
-    <col min="47" max="47" width="36.140625" style="1" customWidth="1"/>
-    <col min="48" max="16384" width="16" style="1"/>
+    <col min="41" max="51" width="16" style="1"/>
+    <col min="52" max="52" width="36.140625" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="16" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1061,10 +1085,25 @@
         <v>83</v>
       </c>
       <c r="AU1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1232,23 @@
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
+      <c r="AU2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1201,7 +1256,7 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1 AC1:AD1 AA1 J3:J5 J6:J1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AF1 AC2:AH2 V6:V1048576 J2 AO1:AU2 W1:W2 Y2:AA2 AI6:AL1048576 K6:T1048576 AM2 K1:T5 AI1:AL5 V1:V5 G1:I5 G6:I1048576"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AF1 AC2:AH2 J2 W1:W2 Y2:AA2 AM2 K1:T1048576 AI1:AL1048576 V1:V1048576 G1:I1048576 AO1:AZ1 AO2:BA2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH1">
       <formula1>"否,是"</formula1>
     </dataValidation>

--- a/resources/templet/staffcost.xlsx
+++ b/resources/templet/staffcost.xlsx
@@ -581,7 +581,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +599,6 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -908,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -945,7 +944,7 @@
     <col min="53" max="16384" width="16" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1201,7 @@
       <c r="AH2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="7" t="s">
         <v>68</v>
       </c>
       <c r="AJ2" s="3" t="s">
@@ -1248,19 +1247,18 @@
         <v>89</v>
       </c>
       <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1 AC1:AD1 AA1 J3:J5 J6:J1048576">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576 AG1 AC1:AD1 AA1">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AF1 AC2:AH2 J2 W1:W2 Y2:AA2 AM2 K1:T1048576 AI1:AL1048576 V1:V1048576 G1:I1048576 AO1:AZ1 AO2:BA2"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AF1 AC2:AH2 J2 W1:W2 Y2:AA2 AM2 AO1:AZ2 K1:T1048576 AI1:AL1048576 V1:V1048576 G1:I1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH1">
       <formula1>"否,是"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN5 AN6:AN1048576">
+    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN1048576">
       <formula1>"否,是"</formula1>
     </dataValidation>
   </dataValidations>
